--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>6.368854496013291</v>
+        <v>7.605959796018221</v>
       </c>
       <c r="R2">
-        <v>6.368854496013291</v>
+        <v>68.45363816416399</v>
       </c>
       <c r="S2">
-        <v>0.07410775212935578</v>
+        <v>0.08281294307963584</v>
       </c>
       <c r="T2">
-        <v>0.07410775212935578</v>
+        <v>0.112103918062581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>0.6174444041421323</v>
+        <v>0.910305544014</v>
       </c>
       <c r="R3">
-        <v>0.6174444041421323</v>
+        <v>8.192749896125999</v>
       </c>
       <c r="S3">
-        <v>0.007184559936871798</v>
+        <v>0.009911317338407836</v>
       </c>
       <c r="T3">
-        <v>0.007184559936871798</v>
+        <v>0.01341695471115717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H4">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I4">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J4">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>0.6745033162207101</v>
+        <v>0.8024923618188333</v>
       </c>
       <c r="R4">
-        <v>0.6745033162207101</v>
+        <v>4.814954170912999</v>
       </c>
       <c r="S4">
-        <v>0.007848495298519151</v>
+        <v>0.008737458001807504</v>
       </c>
       <c r="T4">
-        <v>0.007848495298519151</v>
+        <v>0.007885267201673587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H5">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I5">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J5">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N5">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O5">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P5">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q5">
-        <v>12.73171658226769</v>
+        <v>13.50706340088355</v>
       </c>
       <c r="R5">
-        <v>12.73171658226769</v>
+        <v>121.563570607952</v>
       </c>
       <c r="S5">
-        <v>0.1481457768034293</v>
+        <v>0.147063579428329</v>
       </c>
       <c r="T5">
-        <v>0.1481457768034293</v>
+        <v>0.1990800332065165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H6">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I6">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J6">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N6">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O6">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P6">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q6">
-        <v>1.234307859249352</v>
+        <v>1.616568457752</v>
       </c>
       <c r="R6">
-        <v>1.234307859249352</v>
+        <v>14.549116119768</v>
       </c>
       <c r="S6">
-        <v>0.01436235997255477</v>
+        <v>0.01760103856271164</v>
       </c>
       <c r="T6">
-        <v>0.01436235997255477</v>
+        <v>0.02382653376964406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J7">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N7">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O7">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P7">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q7">
-        <v>1.3483719970832</v>
+        <v>1.425108138947333</v>
       </c>
       <c r="R7">
-        <v>1.3483719970832</v>
+        <v>8.550648833684001</v>
       </c>
       <c r="S7">
-        <v>0.01568960600380432</v>
+        <v>0.01551643741987097</v>
       </c>
       <c r="T7">
-        <v>0.01568960600380432</v>
+        <v>0.01400307218053794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H8">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I8">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J8">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N8">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O8">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P8">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q8">
-        <v>52.34655492713186</v>
+        <v>53.85081453886932</v>
       </c>
       <c r="R8">
-        <v>52.34655492713186</v>
+        <v>323.1048872332159</v>
       </c>
       <c r="S8">
-        <v>0.6091025505126407</v>
+        <v>0.5863223786081564</v>
       </c>
       <c r="T8">
-        <v>0.6091025505126407</v>
+        <v>0.5291365773305833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H9">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I9">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J9">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N9">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O9">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P9">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q9">
-        <v>5.074866671252789</v>
+        <v>6.445037357423999</v>
       </c>
       <c r="R9">
-        <v>5.074866671252789</v>
+        <v>38.670224144544</v>
       </c>
       <c r="S9">
-        <v>0.05905095831568291</v>
+        <v>0.07017293361265114</v>
       </c>
       <c r="T9">
-        <v>0.05905095831568291</v>
+        <v>0.06332875439820017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H10">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I10">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J10">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N10">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O10">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P10">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q10">
-        <v>5.543842289564266</v>
+        <v>5.681711250667999</v>
       </c>
       <c r="R10">
-        <v>5.543842289564266</v>
+        <v>22.726845002672</v>
       </c>
       <c r="S10">
-        <v>0.06450794102714126</v>
+        <v>0.06186191394842976</v>
       </c>
       <c r="T10">
-        <v>0.06450794102714126</v>
+        <v>0.03721888913910638</v>
       </c>
     </row>
   </sheetData>
